--- a/Übersicht.xlsx
+++ b/Übersicht.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vales\Downloads\Icons Infomodell\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Porsche\Documents\UNI\IKTD HiWi\Ywork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D46D2F-32C0-4336-A898-44493C68994D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E55179-1215-4143-A634-443A4C59B5B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Name Informationsobjekt</t>
   </si>
@@ -37,16 +37,96 @@
   </si>
   <si>
     <t>Liniensegment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erzeugnis </t>
+  </si>
+  <si>
+    <t>Werk</t>
+  </si>
+  <si>
+    <t>https://www.flaticon.com/free-icon/factory_861164?term=factory&amp;page=1&amp;position=8&amp;origin=search&amp;related_id=861164</t>
+  </si>
+  <si>
+    <t>Station</t>
+  </si>
+  <si>
+    <t>https://www.flaticon.com/free-icon/assembly-line_157631?term=assembly+lines&amp;page=1&amp;position=11&amp;origin=search&amp;related_id=157631</t>
+  </si>
+  <si>
+    <t>Arbeitsplatz</t>
+  </si>
+  <si>
+    <t>https://www.flaticon.com/free-icon/worker_6755076?term=assembly+lines&amp;page=1&amp;position=52&amp;origin=search&amp;related_id=6755076</t>
+  </si>
+  <si>
+    <t>Baugruppe</t>
+  </si>
+  <si>
+    <t>https://www.flaticon.com/free-icon/manufacturing_1814475?term=manufacturing&amp;page=1&amp;position=16&amp;origin=search&amp;related_id=1814475</t>
+  </si>
+  <si>
+    <t>Produktsegement</t>
+  </si>
+  <si>
+    <t>Unternehmen</t>
+  </si>
+  <si>
+    <t>https://www.flaticon.com/free-icon/enterprise_993891?term=company&amp;page=1&amp;position=4&amp;origin=search&amp;related_id=993891</t>
+  </si>
+  <si>
+    <t>Land</t>
+  </si>
+  <si>
+    <t>https://www.flaticon.com/free-icon/world_10690961?term=country&amp;page=1&amp;position=16&amp;origin=search&amp;related_id=10690961</t>
+  </si>
+  <si>
+    <t>https://www.flaticon.com/free-icon/product-management_10608774?term=product+industry&amp;page=1&amp;position=13&amp;origin=search&amp;related_id=10608774</t>
+  </si>
+  <si>
+    <t>https://www.flaticon.com/free-icon/cogs_4257448</t>
+  </si>
+  <si>
+    <t>Produktelement</t>
+  </si>
+  <si>
+    <t>https://www.flaticon.com/free-icon/bolt_2908918?term=screws&amp;page=2&amp;position=19&amp;origin=search&amp;related_id=2908918</t>
+  </si>
+  <si>
+    <t>Fertigungslinie</t>
+  </si>
+  <si>
+    <t>https://www.flaticon.com/free-icon/hierarchy-structure_3927626?term=tree+structure&amp;page=2&amp;position=69&amp;origin=search&amp;related_id=3927626</t>
+  </si>
+  <si>
+    <t>Ressourcenelement</t>
+  </si>
+  <si>
+    <t>Fähigkeit</t>
+  </si>
+  <si>
+    <t>https://www.flaticon.com/free-icon/resource_6597098?term=resource&amp;page=1&amp;position=47&amp;origin=search&amp;related_id=6597098</t>
+  </si>
+  <si>
+    <t>https://www.flaticon.com/free-icon/cognitive_8920688?term=ability&amp;page=1&amp;position=3&amp;origin=search&amp;related_id=8920688</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -69,13 +149,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -354,19 +437,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="114.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.15625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="114.83984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -374,15 +457,126 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{E5D63985-C54B-401A-A6FC-5DB691AA46A1}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{37E33FA9-94D9-45C7-97A0-719B2B9EE191}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{6D656915-485D-42F5-9DA6-10F47DCB7A25}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{39E6F09A-05FC-44E0-B523-335FF4160ED6}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{50A93D81-537E-4428-891F-26266B32230F}"/>
+    <hyperlink ref="B9" r:id="rId6" xr:uid="{A4360156-C2F3-4ED8-96BA-E94EB59C31D5}"/>
+    <hyperlink ref="B10" r:id="rId7" xr:uid="{9A265D1C-B6C5-43B1-A269-C9B63545C4AC}"/>
+    <hyperlink ref="B8" r:id="rId8" xr:uid="{BD481E93-1651-46FB-B90B-B5DAB90A3F74}"/>
+    <hyperlink ref="B11" r:id="rId9" xr:uid="{6CC2B61C-7513-4D14-851F-7B2E1A50E7A9}"/>
+    <hyperlink ref="B2" r:id="rId10" xr:uid="{098000E8-C9B3-49F1-8A48-B0E2830188BE}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{22EA75B7-4B79-41C4-9CDE-76F4D4A09AB3}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{4918B4DD-AE49-4C77-9347-0FA43709F148}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{01C85227-4EED-43DD-9E0F-83F831FC06E7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Übersicht.xlsx
+++ b/Übersicht.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Porsche\Documents\UNI\IKTD HiWi\Ywork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E55179-1215-4143-A634-443A4C59B5B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8D971F-82FC-46E1-A976-A53866E4C6CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Name Informationsobjekt</t>
   </si>
@@ -90,9 +90,6 @@
     <t>Produktelement</t>
   </si>
   <si>
-    <t>https://www.flaticon.com/free-icon/bolt_2908918?term=screws&amp;page=2&amp;position=19&amp;origin=search&amp;related_id=2908918</t>
-  </si>
-  <si>
     <t>Fertigungslinie</t>
   </si>
   <si>
@@ -105,17 +102,74 @@
     <t>Fähigkeit</t>
   </si>
   <si>
-    <t>https://www.flaticon.com/free-icon/resource_6597098?term=resource&amp;page=1&amp;position=47&amp;origin=search&amp;related_id=6597098</t>
-  </si>
-  <si>
     <t>https://www.flaticon.com/free-icon/cognitive_8920688?term=ability&amp;page=1&amp;position=3&amp;origin=search&amp;related_id=8920688</t>
+  </si>
+  <si>
+    <t>https://www.flaticon.com/free-icon/bolt_9939016?term=screws&amp;page=2&amp;position=7&amp;origin=search&amp;related_id=9939016</t>
+  </si>
+  <si>
+    <t>https://www.flaticon.com/free-icon/interface_10209030?term=assembly&amp;page=1&amp;position=2&amp;origin=search&amp;related_id=10209030</t>
+  </si>
+  <si>
+    <t>Montageschritt</t>
+  </si>
+  <si>
+    <t>https://www.flaticon.com/free-icon/puzzle-piece_3162297?term=puzzles&amp;page=1&amp;position=14&amp;origin=search&amp;related_id=3162297</t>
+  </si>
+  <si>
+    <t>Montageoperation</t>
+  </si>
+  <si>
+    <t>https://www.flaticon.com/free-icon/puzzle_8881317?k=1725288740891&amp;sign-up=email</t>
+  </si>
+  <si>
+    <t>Prozesssegement</t>
+  </si>
+  <si>
+    <t>Montage</t>
+  </si>
+  <si>
+    <t>https://www.flaticon.com/free-icon/teamwork_496699?term=assembly&amp;page=1&amp;position=2&amp;origin=search&amp;related_id=496699</t>
+  </si>
+  <si>
+    <t>https://www.flaticon.com/free-icon/puzzle_3770062</t>
+  </si>
+  <si>
+    <t>Montageanforderungen</t>
+  </si>
+  <si>
+    <t>https://www.flaticon.com/free-icon/requirement_11445835?term=requirements&amp;page=1&amp;position=3&amp;origin=search&amp;related_id=11445835</t>
+  </si>
+  <si>
+    <t>MTM_Bausteine</t>
+  </si>
+  <si>
+    <t>https://www.flaticon.com/free-icon/time_15246917?term=requirements+time&amp;page=1&amp;position=2&amp;origin=search&amp;related_id=15246917</t>
+  </si>
+  <si>
+    <t>Anlagenprogramm</t>
+  </si>
+  <si>
+    <t>https://www.flaticon.com/free-icon/requirement_5151140?related_id=5151140</t>
+  </si>
+  <si>
+    <t>Parameter_Montageanforderung</t>
+  </si>
+  <si>
+    <t>https://www.flaticon.com/free-icon/adjustment_4289046?term=parameters&amp;page=1&amp;position=11&amp;origin=search&amp;related_id=4289046</t>
+  </si>
+  <si>
+    <t>Parameter_MTM-Bausteine</t>
+  </si>
+  <si>
+    <t>https://www.flaticon.com/free-icon/contrast-adjustment_4353843?term=parameters&amp;page=1&amp;position=2&amp;origin=search&amp;related_id=4353843</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +181,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -153,9 +213,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -437,15 +498,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="24.15625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.1015625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="114.83984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -534,32 +595,110 @@
         <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>27</v>
-      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -576,6 +715,15 @@
     <hyperlink ref="B12" r:id="rId11" xr:uid="{22EA75B7-4B79-41C4-9CDE-76F4D4A09AB3}"/>
     <hyperlink ref="B13" r:id="rId12" xr:uid="{4918B4DD-AE49-4C77-9347-0FA43709F148}"/>
     <hyperlink ref="B14" r:id="rId13" xr:uid="{01C85227-4EED-43DD-9E0F-83F831FC06E7}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{0916FD1A-0FA0-4A10-AE70-98F15FB46B13}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{9B59F102-5ADE-4A69-A1FE-CAA1309A62FD}"/>
+    <hyperlink ref="B18" r:id="rId16" xr:uid="{348825E3-6E09-4193-9F35-93263D7972A3}"/>
+    <hyperlink ref="B17" r:id="rId17" xr:uid="{179C5009-D644-4D58-B652-41A141CC00A3}"/>
+    <hyperlink ref="B19" r:id="rId18" xr:uid="{BE07DAD9-C79B-441B-8AF4-1BC1FBA91EA2}"/>
+    <hyperlink ref="B20" r:id="rId19" xr:uid="{F5B741F6-E084-4CCA-BE00-43F9BDC180C1}"/>
+    <hyperlink ref="B21" r:id="rId20" xr:uid="{FE8AAC5D-C407-46B9-825D-9D5D9DC09584}"/>
+    <hyperlink ref="B22" r:id="rId21" xr:uid="{6FD19DAD-9A52-42F9-812D-382CC5A7DCB0}"/>
+    <hyperlink ref="B23" r:id="rId22" xr:uid="{BBC3DDAD-1D6E-4830-A82F-9CA6E6FB0DC3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Übersicht.xlsx
+++ b/Übersicht.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Porsche\Documents\UNI\IKTD HiWi\Ywork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8D971F-82FC-46E1-A976-A53866E4C6CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6AB6DC-C61B-4112-897D-F1A412D9EC87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Name Informationsobjekt</t>
   </si>
@@ -163,6 +174,12 @@
   </si>
   <si>
     <t>https://www.flaticon.com/free-icon/contrast-adjustment_4353843?term=parameters&amp;page=1&amp;position=2&amp;origin=search&amp;related_id=4353843</t>
+  </si>
+  <si>
+    <t>Parameter_Fähigkeit</t>
+  </si>
+  <si>
+    <t>https://www.flaticon.com/free-icon/setting_2244305?term=parameter+setting&amp;page=1&amp;position=37&amp;origin=search&amp;related_id=2244305</t>
   </si>
 </sst>
 </file>
@@ -213,10 +230,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -498,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -610,7 +628,7 @@
       <c r="A13" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -695,10 +713,48 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="2"/>
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" s="3"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="3"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -724,6 +780,7 @@
     <hyperlink ref="B21" r:id="rId20" xr:uid="{FE8AAC5D-C407-46B9-825D-9D5D9DC09584}"/>
     <hyperlink ref="B22" r:id="rId21" xr:uid="{6FD19DAD-9A52-42F9-812D-382CC5A7DCB0}"/>
     <hyperlink ref="B23" r:id="rId22" xr:uid="{BBC3DDAD-1D6E-4830-A82F-9CA6E6FB0DC3}"/>
+    <hyperlink ref="B24" r:id="rId23" xr:uid="{24D0C9FE-870B-47E9-A2FA-54C7C7EAB2B7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
